--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Exercise Files/Exercise 04.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Exercise Files/Exercise 04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Exercise Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Exercise Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{5B697F00-A33B-4C6A-82BB-D0A0566AD82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D6EB97-6848-49A9-98F0-B50778E98B0C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87534CC1-D366-4EAE-A7AB-62489C94AC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{34B7161F-5B06-44BA-95C3-8882DCCA26F7}"/>
+    <workbookView xWindow="5856" yWindow="1788" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{34B7161F-5B06-44BA-95C3-8882DCCA26F7}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDIAN AND MODE" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,34 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
@@ -266,8 +287,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -375,7 +396,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
@@ -385,11 +406,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -397,7 +418,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A0687C-411F-4285-A147-9768055853D2}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,9 +1104,18 @@
         <v>841</v>
       </c>
       <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" s="8"/>
-      <c r="J4"/>
+      <c r="H4" s="8">
+        <f>AVERAGE(B4:E15)</f>
+        <v>1108.4791666666667</v>
+      </c>
+      <c r="I4" s="8">
+        <f>MEDIAN(B4:E15)</f>
+        <v>1045</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4:J5">_xlfn.MODE.MULT(B4:E15)</f>
+        <v>841</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
     </row>
@@ -1108,7 +1138,9 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5"/>
+      <c r="J5">
+        <v>1990</v>
+      </c>
       <c r="K5"/>
       <c r="L5"/>
     </row>
@@ -1354,7 +1386,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G11" sqref="G11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1392,8 +1424,14 @@
       <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="7">
+        <f>LARGE($B$5:$B$19,E4)</f>
+        <v>1465</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>INDEX($A$5:$A$19,MATCH(F4,$B$5:$B$19,0))</f>
+        <v>Premium</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -1405,8 +1443,14 @@
       <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F6" si="0">LARGE($B$5:$B$19,E5)</f>
+        <v>1380</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" ref="G5:G6" si="1">INDEX($A$5:$A$19,MATCH(F5,$B$5:$B$19,0))</f>
+        <v>Skosk</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -1418,8 +1462,14 @@
       <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Mandarin</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -1472,8 +1522,14 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2">
+        <f>SMALL($B$5:$B$19,E11)</f>
+        <v>655</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>_xlfn.XLOOKUP(F11,$B$5:$B$19,A5:A19)</f>
+        <v>Royal Oak</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -1485,8 +1541,14 @@
       <c r="E12" s="11">
         <v>2</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F13" si="2">SMALL($B$5:$B$19,E12)</f>
+        <v>700</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" ref="G12:G13" si="3">_xlfn.XLOOKUP(F12,$B$5:$B$19,A6:A20)</f>
+        <v>Skosk</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
@@ -1498,8 +1560,14 @@
       <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>890</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Mandarin</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
@@ -1595,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC55621-DAF0-4A5A-852A-B95D36212F2C}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,13 +1678,13 @@
     <col min="5" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -1630,227 +1698,351 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.98599019126675636</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" cm="1">
+        <f t="array" ref="F4:F23">_xlfn.RANK.EQ($C$4:$C$23,$C:$C,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.90158043287060496</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C6" s="12">
         <v>0.89735088916607686</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="12">
-        <v>0.46463867792125924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="12">
+        <v>0.84113470039448823</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.80972834092718227</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="12">
-        <v>0.138540539704332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.43014543038115649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.84113470039448823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" s="12">
-        <v>5.7919376119670796E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.75688295474064637</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="12">
-        <v>0.29071637537032569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.6785119030287734</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="12">
-        <v>0.27042580890648571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.6005719949309718</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="12">
-        <v>0.21476889926267018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.54853967359506317</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.53785718421947037</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.46463867792125924</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.43285379549431457</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.43014543038115649</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="12">
-        <v>2.8659246176505615E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.75688295474064637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0.80972834092718227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0.90158043287060496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C17" s="12">
-        <v>0.98599019126675636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.34539179732631564</v>
+      </c>
+      <c r="D17" s="2">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="12">
-        <v>0.53785718421947037</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.29071637537032569</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="12">
-        <v>0.6785119030287734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.27042580890648571</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="12">
-        <v>0.43285379549431457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.21476889926267018</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12">
-        <v>0.54853967359506317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.138540539704332</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="12">
-        <v>0.6005719949309718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.7919376119670796E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="12">
-        <v>0.34539179732631564</v>
+        <v>2.8659246176505615E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D23">
+    <sortCondition ref="D9:D23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
